--- a/excelParser/ex.xlsx
+++ b/excelParser/ex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1REPOS\excelParser\excelParser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neerd\source\repos\excel\excelParser\excelParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AB83B2-9363-4504-9D71-F23E8C600479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA42C0B-F24D-4A52-A319-7CE1C4848957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6096" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="3465" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Prop3</t>
+  </si>
+  <si>
+    <t>Prop4</t>
   </si>
 </sst>
 </file>
@@ -387,26 +390,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -416,8 +422,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -427,8 +436,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -438,8 +450,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -449,8 +464,11 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -460,8 +478,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -471,8 +492,11 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -482,8 +506,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -493,8 +520,11 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -504,8 +534,11 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -514,6 +547,9 @@
       </c>
       <c r="C11" t="s">
         <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
